--- a/001.xlsx
+++ b/001.xlsx
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Cliente:</t>
   </si>
   <si>
-    <t>HEMCO</t>
+    <t>MINISTERIO DE TRANSPORTE E INFRAESTRUCTURA (MTI)</t>
   </si>
   <si>
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>ESTUDIO GEOTECNICO PARA EL ANALISIS DE ESTABILIDAD DE LADERA E INTERCONEXION DE 2 HIDROTURBINAS DE 500Kw A TUBO DE 82 m DE ALTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE PRESION, EN SIEMPRE VIVA,</t>
+    <t>ESTUDIO DE FACTIBILIDAD Y DISEÑO PARA LA AMPLIACIÓN DE LA CARRETERA EMPALME SAN BENITO-EMPALME SEBACO-ESTELI</t>
   </si>
   <si>
     <t>Sondeo No:</t>
@@ -242,10 +239,10 @@
 (MH)</t>
   </si>
   <si>
+    <t>NP</t>
+  </si>
+  <si>
     <t>R O T A D O</t>
-  </si>
-  <si>
-    <t>NP</t>
   </si>
   <si>
     <t>ROTADO</t>
@@ -2264,6 +2261,388 @@
           </c:yVal>
           <c:smooth val="false"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:prstClr val="red"/>
+            </a:solidFill>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$D$1:$D$58</c:f>
+              <c:numCache>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$E$1:$E$58</c:f>
+              <c:numCache>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="false"/>
+        </c:ser>
         <c:axId val="0"/>
         <c:axId val="1"/>
       </c:scatterChart>
@@ -2493,9 +2872,7 @@
       <c r="AD2" s="42"/>
     </row>
     <row r="3" ht="50.0" customHeight="true">
-      <c r="H3" t="s" s="40">
-        <v>4</v>
-      </c>
+      <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
@@ -2513,20 +2890,20 @@
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
       <c r="Y3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="70" t="s">
         <v>5</v>
-      </c>
-      <c r="AB3" s="70" t="s">
-        <v>6</v>
       </c>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="G4" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s" s="40">
         <v>7</v>
-      </c>
-      <c r="H4" t="s" s="40">
-        <v>8</v>
       </c>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
@@ -2553,34 +2930,34 @@
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="s" s="37">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="38">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="38">
+      <c r="C6" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="38">
+      <c r="D6" t="s" s="38">
         <v>20</v>
       </c>
-      <c r="D6" t="s" s="38">
+      <c r="E6" t="s" s="38">
         <v>21</v>
       </c>
-      <c r="E6" t="s" s="38">
+      <c r="F6" t="s" s="38">
         <v>22</v>
       </c>
-      <c r="F6" t="s" s="38">
+      <c r="G6" t="s" s="46">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="46">
+      <c r="H6" t="s" s="38">
         <v>24</v>
       </c>
-      <c r="H6" t="s" s="38">
+      <c r="I6" t="s" s="38">
         <v>25</v>
       </c>
-      <c r="I6" t="s" s="38">
+      <c r="J6" t="s" s="38">
         <v>26</v>
-      </c>
-      <c r="J6" t="s" s="38">
-        <v>27</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="51"/>
@@ -2615,10 +2992,10 @@
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" t="s" s="52">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s" s="55">
         <v>9</v>
-      </c>
-      <c r="N7" t="s" s="55">
-        <v>10</v>
       </c>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
@@ -2629,10 +3006,10 @@
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
       <c r="W7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s" s="55">
         <v>11</v>
-      </c>
-      <c r="Z7" t="s" s="55">
-        <v>12</v>
       </c>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
@@ -2651,10 +3028,10 @@
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" t="s" s="52">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s" s="55">
         <v>13</v>
-      </c>
-      <c r="N8" t="s" s="55">
-        <v>14</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
@@ -2685,10 +3062,10 @@
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" t="s" s="52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2701,10 +3078,10 @@
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
       <c r="Y9" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="s" s="55">
         <v>16</v>
-      </c>
-      <c r="AA9" t="s" s="55">
-        <v>17</v>
       </c>
       <c r="AB9" s="42"/>
       <c r="AC9" s="42"/>
@@ -2744,7 +3121,7 @@
     </row>
     <row r="11" ht="45.0" customHeight="true">
       <c r="A11" t="s" s="43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -2756,16 +3133,16 @@
       <c r="I11" s="44"/>
       <c r="J11" s="57"/>
       <c r="K11" t="s" s="60">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s" s="60">
         <v>29</v>
       </c>
-      <c r="L11" t="s" s="60">
+      <c r="M11" t="s" s="60">
         <v>30</v>
       </c>
-      <c r="M11" t="s" s="60">
+      <c r="N11" t="s" s="63">
         <v>31</v>
-      </c>
-      <c r="N11" t="s" s="63">
-        <v>32</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="44"/>
@@ -2828,13 +3205,13 @@
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="49" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>70</v>
       </c>
       <c r="H13" t="n" s="58">
         <v>56.0</v>
@@ -2844,7 +3221,7 @@
       </c>
       <c r="J13" s="41"/>
       <c r="K13" t="s" s="62">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" t="n" s="64">
         <v>2.0</v>
@@ -2874,7 +3251,7 @@
         <v>12.0</v>
       </c>
       <c r="N14" t="s" s="62">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD14" s="72"/>
     </row>
@@ -2911,7 +3288,7 @@
         <v>33.0</v>
       </c>
       <c r="K16" t="s" s="62">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" t="n" s="64">
         <v>4.0</v>
@@ -2920,7 +3297,7 @@
         <v>8.0</v>
       </c>
       <c r="N16" t="s" s="62">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD16" s="72"/>
     </row>
@@ -2962,7 +3339,7 @@
       </c>
       <c r="M18" s="41"/>
       <c r="N18" t="s" s="62">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="72"/>
     </row>
@@ -2978,7 +3355,7 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" t="s" s="62">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" t="n" s="64">
         <v>18.0</v>
@@ -3008,7 +3385,7 @@
         <v>65.0</v>
       </c>
       <c r="N20" t="s" s="62">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD20" s="72"/>
     </row>
@@ -3043,35 +3420,32 @@
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>74</v>
-      </c>
       <c r="H22" t="s" s="58">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s" s="58">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" t="s" s="62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N22" t="s" s="62">
-        <v>46</v>
-      </c>
-      <c r="Q22" t="s" s="27">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AD22" s="72"/>
     </row>
@@ -3089,11 +3463,11 @@
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
       <c r="M23" t="s" s="67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N23" s="62"/>
-      <c r="Q23" t="s" s="22">
-        <v>14</v>
+      <c r="Q23" t="s" s="27">
+        <v>71</v>
       </c>
       <c r="AD23" s="72"/>
     </row>
@@ -3110,11 +3484,11 @@
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
       <c r="L24" t="s" s="68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24" s="41"/>
       <c r="N24" t="s" s="62">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD24" s="72"/>
     </row>
@@ -3130,13 +3504,13 @@
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" t="s" s="62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M25" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25" s="62"/>
       <c r="AD25" s="72"/>
@@ -3155,13 +3529,13 @@
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
       <c r="M26" t="s" s="67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26" t="s" s="62">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q26" t="s" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD26" s="72"/>
     </row>
@@ -3178,7 +3552,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
       <c r="L27" t="s" s="68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M27" s="41"/>
       <c r="N27" s="62"/>
@@ -3196,16 +3570,16 @@
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" t="s" s="62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s" s="62">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD28" s="72"/>
     </row>
@@ -3223,11 +3597,11 @@
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
       <c r="M29" t="s" s="67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N29" s="62"/>
       <c r="Q29" t="s" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD29" s="72"/>
     </row>
@@ -3244,11 +3618,11 @@
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
       <c r="L30" t="s" s="68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" t="s" s="62">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD30" s="72"/>
     </row>
@@ -3264,34 +3638,31 @@
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="49" t="s">
-        <v>74</v>
-      </c>
       <c r="H31" t="s" s="58">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s" s="58">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" t="s" s="62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M31" t="s" s="64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N31" s="62"/>
-      <c r="Q31" t="s" s="27">
-        <v>71</v>
-      </c>
       <c r="AD31" s="72"/>
     </row>
     <row r="32" ht="20.0" customHeight="true">
@@ -3308,13 +3679,13 @@
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="M32" t="s" s="67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N32" t="s" s="62">
-        <v>51</v>
-      </c>
-      <c r="Q32" t="s" s="22">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="Q32" t="s" s="27">
+        <v>71</v>
       </c>
       <c r="AD32" s="72"/>
     </row>
@@ -3331,7 +3702,7 @@
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
       <c r="L33" t="s" s="68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="62"/>
@@ -3349,13 +3720,13 @@
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="49" t="s">
         <v>75</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>76</v>
       </c>
       <c r="H34" t="n" s="58">
         <v>64.0</v>
@@ -3367,7 +3738,7 @@
         <v>33.7</v>
       </c>
       <c r="K34" t="s" s="62">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" t="n" s="64">
         <v>4.0</v>
@@ -3376,7 +3747,7 @@
         <v>8.0</v>
       </c>
       <c r="N34" t="s" s="62">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD34" s="72"/>
     </row>
@@ -3418,7 +3789,7 @@
       </c>
       <c r="M36" s="41"/>
       <c r="N36" t="s" s="62">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD36" s="72"/>
     </row>
@@ -3434,7 +3805,7 @@
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
       <c r="K37" t="s" s="62">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" t="n" s="64">
         <v>7.0</v>
@@ -3464,7 +3835,7 @@
         <v>23.0</v>
       </c>
       <c r="N38" t="s" s="62">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD38" s="72"/>
     </row>
@@ -3501,7 +3872,7 @@
         <v>28.2</v>
       </c>
       <c r="K40" t="s" s="62">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" t="n" s="64">
         <v>9.0</v>
@@ -3510,7 +3881,7 @@
         <v>18.0</v>
       </c>
       <c r="N40" t="s" s="62">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD40" s="72"/>
     </row>
@@ -3552,7 +3923,7 @@
       </c>
       <c r="M42" s="41"/>
       <c r="N42" t="s" s="62">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD42" s="72"/>
     </row>
@@ -3569,10 +3940,10 @@
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" t="n" s="58">
         <v>52.0</v>
@@ -3582,7 +3953,7 @@
       </c>
       <c r="J43" s="41"/>
       <c r="K43" t="s" s="62">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L43" t="n" s="64">
         <v>15.0</v>
@@ -3612,7 +3983,7 @@
         <v>27.0</v>
       </c>
       <c r="N44" t="s" s="62">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD44" s="72"/>
     </row>
@@ -3648,10 +4019,10 @@
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H46" t="n" s="58">
         <v>62.0</v>
@@ -3663,7 +4034,7 @@
         <v>36.7</v>
       </c>
       <c r="K46" t="s" s="62">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L46" t="n" s="64">
         <v>7.0</v>
@@ -3672,7 +4043,7 @@
         <v>14.0</v>
       </c>
       <c r="N46" t="s" s="62">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD46" s="72"/>
     </row>
@@ -3714,7 +4085,7 @@
       </c>
       <c r="M48" s="41"/>
       <c r="N48" t="s" s="62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD48" s="72"/>
     </row>
@@ -3730,7 +4101,7 @@
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
       <c r="K49" t="s" s="62">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L49" t="n" s="64">
         <v>8.0</v>
@@ -3760,7 +4131,7 @@
         <v>19.0</v>
       </c>
       <c r="N50" t="s" s="62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD50" s="72"/>
     </row>
@@ -3797,7 +4168,7 @@
         <v>33.7</v>
       </c>
       <c r="K52" t="s" s="62">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L52" t="n" s="64">
         <v>8.0</v>
@@ -3806,7 +4177,7 @@
         <v>16.0</v>
       </c>
       <c r="N52" t="s" s="62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD52" s="72"/>
     </row>
@@ -3848,7 +4219,7 @@
       </c>
       <c r="M54" s="41"/>
       <c r="N54" t="s" s="62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD54" s="72"/>
     </row>
@@ -3864,7 +4235,7 @@
       <c r="I55" s="41"/>
       <c r="J55" s="41"/>
       <c r="K55" t="s" s="62">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L55" t="n" s="64">
         <v>7.0</v>
@@ -3894,7 +4265,7 @@
         <v>17.0</v>
       </c>
       <c r="N56" t="s" s="62">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD56" s="72"/>
     </row>
@@ -3931,7 +4302,7 @@
         <v>35.8</v>
       </c>
       <c r="K58" t="s" s="62">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L58" t="n" s="64">
         <v>7.0</v>
@@ -3940,7 +4311,7 @@
         <v>14.0</v>
       </c>
       <c r="N58" t="s" s="62">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD58" s="72"/>
     </row>
@@ -3982,7 +4353,7 @@
       </c>
       <c r="M60" s="41"/>
       <c r="N60" t="s" s="62">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD60" s="72"/>
     </row>
@@ -3998,7 +4369,7 @@
       <c r="I61" s="41"/>
       <c r="J61" s="41"/>
       <c r="K61" t="s" s="62">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L61" t="n" s="64">
         <v>6.0</v>
@@ -4028,7 +4399,7 @@
         <v>15.0</v>
       </c>
       <c r="N62" t="s" s="62">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD62" s="72"/>
     </row>
@@ -4065,7 +4436,7 @@
         <v>32.8</v>
       </c>
       <c r="K64" t="s" s="62">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L64" t="n" s="64">
         <v>10.0</v>
@@ -4074,7 +4445,7 @@
         <v>20.0</v>
       </c>
       <c r="N64" t="s" s="62">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD64" s="72"/>
     </row>
@@ -4116,7 +4487,7 @@
       </c>
       <c r="M66" s="80"/>
       <c r="N66" t="s" s="82">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
@@ -4137,7 +4508,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="84">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4586,7 @@
     <mergeCell ref="G13:G21"/>
     <mergeCell ref="H13:H21"/>
     <mergeCell ref="I13:I21"/>
-    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="C22:C30"/>
@@ -4223,7 +4594,7 @@
     <mergeCell ref="G22:G30"/>
     <mergeCell ref="H22:H30"/>
     <mergeCell ref="I22:I30"/>
-    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q32:T32"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:C33"/>
@@ -4285,7 +4656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4298,6 +4669,12 @@
       <c r="B1" t="n">
         <v>0.0</v>
       </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4306,6 +4683,12 @@
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4314,6 +4697,12 @@
       <c r="B3" t="n">
         <v>0.5</v>
       </c>
+      <c r="D3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4322,6 +4711,12 @@
       <c r="B4" t="n">
         <v>0.5</v>
       </c>
+      <c r="D4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4330,6 +4725,12 @@
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
+      <c r="D5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4338,6 +4739,12 @@
       <c r="B6" t="n">
         <v>1.5</v>
       </c>
+      <c r="D6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4346,6 +4753,12 @@
       <c r="B7" t="n">
         <v>1.5</v>
       </c>
+      <c r="D7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4354,6 +4767,12 @@
       <c r="B8" t="n">
         <v>2.0</v>
       </c>
+      <c r="D8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4362,6 +4781,12 @@
       <c r="B9" t="n">
         <v>2.0</v>
       </c>
+      <c r="D9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4370,6 +4795,12 @@
       <c r="B10" t="n">
         <v>2.5</v>
       </c>
+      <c r="D10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4378,6 +4809,12 @@
       <c r="B11" t="n">
         <v>3.0</v>
       </c>
+      <c r="D11" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4386,6 +4823,12 @@
       <c r="B12" t="n">
         <v>3.0</v>
       </c>
+      <c r="D12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4394,6 +4837,12 @@
       <c r="B13" t="n">
         <v>3.5</v>
       </c>
+      <c r="D13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4402,6 +4851,12 @@
       <c r="B14" t="n">
         <v>3.5</v>
       </c>
+      <c r="D14" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4410,6 +4865,12 @@
       <c r="B15" t="n">
         <v>4.0</v>
       </c>
+      <c r="D15" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4418,6 +4879,12 @@
       <c r="B16" t="n">
         <v>4.5</v>
       </c>
+      <c r="D16" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4426,6 +4893,12 @@
       <c r="B17" t="n">
         <v>4.5</v>
       </c>
+      <c r="D17" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4433,6 +4906,332 @@
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/001.xlsx
+++ b/001.xlsx
@@ -21,13 +21,13 @@
     <t>Cliente:</t>
   </si>
   <si>
-    <t>MINISTERIO DE TRANSPORTE E INFRAESTRUCTURA (MTI)</t>
+    <t xml:space="preserve">HEMCO </t>
   </si>
   <si>
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>ESTUDIO DE FACTIBILIDAD Y DISEÑO PARA LA AMPLIACIÓN DE LA CARRETERA EMPALME SAN BENITO-EMPALME SEBACO-ESTELI</t>
+    <t>AMPLIACION DE PLANTA DE TOXIFICACION</t>
   </si>
   <si>
     <t>Sondeo No:</t>
@@ -239,10 +239,10 @@
 (MH)</t>
   </si>
   <si>
+    <t>R O T A D O</t>
+  </si>
+  <si>
     <t>NP</t>
-  </si>
-  <si>
-    <t>R O T A D O</t>
   </si>
   <si>
     <t>ROTADO</t>
@@ -3429,10 +3429,10 @@
         <v>73</v>
       </c>
       <c r="H22" t="s" s="58">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="58">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" t="s" s="62">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="N23" s="62"/>
       <c r="Q23" t="s" s="27">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD23" s="72"/>
     </row>
@@ -3647,10 +3647,10 @@
         <v>73</v>
       </c>
       <c r="H31" t="s" s="58">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s" s="58">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" t="s" s="62">
@@ -3685,7 +3685,7 @@
         <v>50</v>
       </c>
       <c r="Q32" t="s" s="27">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD32" s="72"/>
     </row>

--- a/001.xlsx
+++ b/001.xlsx
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Cliente:</t>
   </si>
   <si>
-    <t>MINSA</t>
+    <t>MINISTERIO DE TRANSPORTE E INFRAESTRUCTURA (MTI)</t>
   </si>
   <si>
     <t>Proyecto:</t>
   </si>
   <si>
-    <t xml:space="preserve">ESTUDIOS DE GEOTECNIA PARA LA CONSTRUCCIÓN DE CASA MATERNA EN EL VIEJO, CHINANDEGA. </t>
+    <t>ESTUDIO DE FACTIBILIDAD Y DISEÑO PARA LA AMPLIACIÓN DE LA CARRETERA EMPALME SAN BENITO-EMPALME SEBACO-ESTELI</t>
   </si>
   <si>
     <t>Sondeo No:</t>
@@ -39,15 +39,21 @@
     <t>Lugar:</t>
   </si>
   <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operador: </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Operador: </t>
-  </si>
-  <si>
     <t>Nivel Freatico:</t>
   </si>
   <si>
+    <t>No hay</t>
+  </si>
+  <si>
     <t>Observaciones:</t>
   </si>
   <si>
@@ -57,7 +63,7 @@
     <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
-    <t>2021-03-22</t>
+    <t>01-06-2022</t>
   </si>
   <si>
     <t>Cota en 
@@ -115,31 +121,10 @@
     <t>Profundidad</t>
   </si>
   <si>
-    <t>16"</t>
-  </si>
-  <si>
-    <t>14"</t>
-  </si>
-  <si>
-    <t>15"</t>
-  </si>
-  <si>
-    <t>13"</t>
-  </si>
-  <si>
-    <t>11"</t>
-  </si>
-  <si>
-    <t>8"</t>
-  </si>
-  <si>
-    <t>12"</t>
-  </si>
-  <si>
-    <t>9"</t>
-  </si>
-  <si>
-    <t>6"</t>
+    <t>22"</t>
+  </si>
+  <si>
+    <t>33"</t>
   </si>
   <si>
     <t>1'</t>
@@ -151,62 +136,14 @@
     <t>3'</t>
   </si>
   <si>
-    <t>4'</t>
-  </si>
-  <si>
-    <t>5'</t>
-  </si>
-  <si>
-    <t>6'</t>
-  </si>
-  <si>
-    <t>7'</t>
-  </si>
-  <si>
-    <t>8'</t>
-  </si>
-  <si>
-    <t>9'</t>
-  </si>
-  <si>
-    <t>10'</t>
-  </si>
-  <si>
-    <t>11'</t>
-  </si>
-  <si>
-    <t>12'</t>
-  </si>
-  <si>
-    <t>13'</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>'LIMO CON ARENA, COLOR GRIS CLARO.
-(ML)</t>
-  </si>
-  <si>
-    <t>'LIMO ARENOSO, COLOR GRIS.
-(ML)</t>
-  </si>
-  <si>
-    <t>'LIMO ARENOSO, COLOR GRIS CLARO.
-(ML)</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>'ARENA LIMOSA, COLOR CAFE.
-(SM)</t>
-  </si>
-  <si>
-    <t>CN</t>
+    <t>BEDROCK</t>
+  </si>
+  <si>
+    <t>SADV
+(BEDROCK)</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>Fin del Sondeo No. 1</t>
@@ -217,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -301,26 +238,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="17.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="16.0"/>
       <b val="true"/>
     </font>
@@ -1008,6 +925,124 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin"/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1465,65 +1500,6 @@
       </bottom>
     </border>
     <border>
-      <left style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right style="medium"/>
       <top style="thin"/>
@@ -1577,65 +1553,6 @@
         <color indexed="8"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <right style="medium"/>
@@ -1685,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="top"/>
@@ -1766,7 +1683,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1778,22 +1695,10 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment wrapText="true" textRotation="90" vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -1860,7 +1765,7 @@
       <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1868,39 +1773,51 @@
       <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="85" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="77" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="91" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="82" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="88" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="106" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="88" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1908,7 +1825,7 @@
       <alignment horizontal="left" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="97" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1916,10 +1833,6 @@
       <alignment horizontal="left" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1928,56 +1841,32 @@
       <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="103" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="117" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="107" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="121" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="112" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="90" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="119" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="124" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="131" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="131" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="right" vertical="center" indent="0" textRotation="0" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="131" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="136" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2035,151 +1924,46 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$A$1:$A$48</c:f>
+              <c:f>Datos!$A$1:$A$13</c:f>
               <c:numCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2187,9 +1971,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$1:$B$48</c:f>
+              <c:f>Datos!$B$1:$B$13</c:f>
               <c:numCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2227,111 +2011,6 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2372,7 +2051,7 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="13.5"/>
+          <c:max val="3.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="true"/>
@@ -2419,7 +2098,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -2429,7 +2108,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8534400" cy="9906000"/>
+        <a:ext cx="8534400" cy="3238500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2447,7 +2126,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2473,1061 +2152,552 @@
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" ht="50.0" customHeight="true">
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" ht="50.0" customHeight="true">
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
       <c r="Y3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="70" t="s">
+      <c r="AB3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
     </row>
     <row r="4" ht="50.0" customHeight="true">
       <c r="G4" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H4" t="s" s="40">
+      <c r="H4" t="s" s="36">
         <v>7</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
     </row>
     <row r="6" ht="40.0" customHeight="true">
-      <c r="A6" t="s" s="37">
+      <c r="A6" t="s" s="33">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="34">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="34">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="34">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="34">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s" s="34">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="71"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" t="s" s="48">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s" s="53">
+        <v>9</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s" s="53">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="72"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" t="s" s="48">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s" s="53">
+        <v>9</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="72"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s" s="53">
+        <v>9</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="38">
+      <c r="AA9" t="s" s="53">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="38">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="38">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="38">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="38">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="46">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s" s="38">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s" s="38">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s" s="38">
-        <v>23</v>
-      </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="74"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" t="s" s="52">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s" s="55">
-        <v>7</v>
-      </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="s" s="55">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="75"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" t="s" s="52">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s" s="55">
-        <v>7</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="75"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" t="s" s="52">
-        <v>11</v>
-      </c>
-      <c r="N9" t="s" s="55">
-        <v>7</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="s" s="55">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="75"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="72"/>
     </row>
     <row r="10">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="76"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="73"/>
     </row>
     <row r="11" ht="45.0" customHeight="true">
-      <c r="A11" t="s" s="43">
-        <v>24</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="57"/>
-      <c r="K11" t="s" s="60">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s" s="60">
+      <c r="A11" t="s" s="39">
         <v>26</v>
       </c>
-      <c r="M11" t="s" s="60">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="55"/>
+      <c r="K11" t="s" s="58">
         <v>27</v>
       </c>
-      <c r="N11" t="s" s="63">
+      <c r="L11" t="s" s="58">
         <v>28</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="79"/>
+      <c r="M11" t="s" s="58">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s" s="62">
+        <v>30</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="74"/>
     </row>
     <row r="12" ht="45.0" customHeight="true">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="76"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="73"/>
     </row>
     <row r="13" ht="27.0" customHeight="true">
-      <c r="A13" t="n" s="47">
-        <v>-1.83</v>
-      </c>
-      <c r="B13" t="n" s="48">
-        <v>1.83</v>
-      </c>
-      <c r="C13" t="n" s="49">
-        <v>1.83</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" t="s" s="62">
-        <v>29</v>
-      </c>
-      <c r="L13" t="n" s="64">
-        <v>6.0</v>
-      </c>
-      <c r="M13" t="n" s="66">
-        <v>12.0</v>
-      </c>
-      <c r="N13" s="62"/>
-      <c r="AD13" s="75"/>
+      <c r="A13" t="n" s="43">
+        <v>-0.9</v>
+      </c>
+      <c r="B13" t="n" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="C13" t="n" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="n" s="56">
+        <v>21.0</v>
+      </c>
+      <c r="I13" t="n" s="56">
+        <v>21.0</v>
+      </c>
+      <c r="J13" t="n" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="s" s="61">
+        <v>31</v>
+      </c>
+      <c r="L13" t="n" s="63">
+        <v>33.0</v>
+      </c>
+      <c r="M13" t="n" s="65">
+        <v>66.0</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="AD13" s="72"/>
     </row>
     <row r="14" ht="27.0" customHeight="true">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" t="n" s="62">
-        <v>12.0</v>
-      </c>
-      <c r="M14" t="n" s="68">
-        <v>27.0</v>
-      </c>
-      <c r="N14" t="s" s="62">
-        <v>38</v>
-      </c>
-      <c r="AD14" s="75"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" t="n" s="61">
+        <v>43.0</v>
+      </c>
+      <c r="M14" t="n" s="66">
+        <v>76.0</v>
+      </c>
+      <c r="N14" t="s" s="61">
+        <v>33</v>
+      </c>
+      <c r="AD14" s="72"/>
     </row>
     <row r="15" ht="27.0" customHeight="true">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" t="n" s="69">
-        <v>15.0</v>
-      </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="62"/>
-      <c r="AD15" s="75"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" t="n" s="67">
+        <v>33.0</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="61"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" ht="27.0" customHeight="true">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" t="n" s="67">
-        <v>67.8</v>
-      </c>
-      <c r="K16" t="s" s="62">
-        <v>30</v>
-      </c>
-      <c r="L16" t="n" s="64">
-        <v>10.0</v>
-      </c>
-      <c r="M16" t="n" s="66">
-        <v>20.0</v>
-      </c>
-      <c r="N16" t="s" s="62">
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" t="s" s="61">
+        <v>32</v>
+      </c>
+      <c r="L16" t="n" s="63">
+        <v>32.0</v>
+      </c>
+      <c r="M16" t="n" s="65">
+        <v>64.0</v>
+      </c>
+      <c r="N16" t="s" s="61">
+        <v>34</v>
+      </c>
+      <c r="AD16" s="72"/>
+    </row>
+    <row r="17" ht="27.0" customHeight="true">
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" t="n" s="61">
+        <v>33.0</v>
+      </c>
+      <c r="M17" t="n" s="66">
+        <v>76.0</v>
+      </c>
+      <c r="N17" s="61"/>
+      <c r="AD17" s="72"/>
+    </row>
+    <row r="18" ht="27.0" customHeight="true">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" t="n" s="68">
+        <v>43.0</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" t="s" s="70">
+        <v>35</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="75"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="76">
         <v>39</v>
-      </c>
-      <c r="AD16" s="75"/>
-    </row>
-    <row r="17" ht="27.0" customHeight="true">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" t="n" s="62">
-        <v>15.0</v>
-      </c>
-      <c r="M17" t="n" s="68">
-        <v>30.0</v>
-      </c>
-      <c r="N17" s="62"/>
-      <c r="AD17" s="75"/>
-    </row>
-    <row r="18" ht="27.0" customHeight="true">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" t="n" s="69">
-        <v>15.0</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" t="s" s="62">
-        <v>40</v>
-      </c>
-      <c r="AD18" s="75"/>
-    </row>
-    <row r="19" ht="27.0" customHeight="true">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" t="s" s="62">
-        <v>31</v>
-      </c>
-      <c r="L19" t="n" s="64">
-        <v>15.0</v>
-      </c>
-      <c r="M19" t="n" s="66">
-        <v>30.0</v>
-      </c>
-      <c r="N19" s="62"/>
-      <c r="AD19" s="75"/>
-    </row>
-    <row r="20" ht="27.0" customHeight="true">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" t="n" s="62">
-        <v>20.0</v>
-      </c>
-      <c r="M20" t="n" s="68">
-        <v>40.0</v>
-      </c>
-      <c r="N20" t="s" s="62">
-        <v>41</v>
-      </c>
-      <c r="AD20" s="75"/>
-    </row>
-    <row r="21" ht="27.0" customHeight="true">
-      <c r="A21" s="39"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" t="n" s="69">
-        <v>20.0</v>
-      </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="62"/>
-      <c r="AD21" s="75"/>
-    </row>
-    <row r="22" ht="27.0" customHeight="true">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" t="n" s="67">
-        <v>37.9</v>
-      </c>
-      <c r="K22" t="s" s="62">
-        <v>32</v>
-      </c>
-      <c r="L22" t="n" s="64">
-        <v>14.0</v>
-      </c>
-      <c r="M22" t="n" s="66">
-        <v>28.0</v>
-      </c>
-      <c r="N22" t="s" s="62">
-        <v>42</v>
-      </c>
-      <c r="AD22" s="75"/>
-    </row>
-    <row r="23" ht="27.0" customHeight="true">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" t="n" s="62">
-        <v>14.0</v>
-      </c>
-      <c r="M23" t="n" s="68">
-        <v>29.0</v>
-      </c>
-      <c r="N23" s="62"/>
-      <c r="AD23" s="75"/>
-    </row>
-    <row r="24" ht="27.0" customHeight="true">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" t="n" s="69">
-        <v>15.0</v>
-      </c>
-      <c r="M24" s="41"/>
-      <c r="N24" t="s" s="62">
-        <v>43</v>
-      </c>
-      <c r="AD24" s="75"/>
-    </row>
-    <row r="25" ht="27.0" customHeight="true">
-      <c r="A25" t="n" s="47">
-        <v>-2.29</v>
-      </c>
-      <c r="B25" t="n" s="48">
-        <v>2.29</v>
-      </c>
-      <c r="C25" t="n" s="49">
-        <v>0.46</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="I25" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="K25" t="s" s="62">
-        <v>33</v>
-      </c>
-      <c r="L25" t="n" s="64">
-        <v>28.0</v>
-      </c>
-      <c r="M25" t="n" s="66">
-        <v>56.0</v>
-      </c>
-      <c r="N25" s="62"/>
-      <c r="AD25" s="75"/>
-    </row>
-    <row r="26" ht="27.0" customHeight="true">
-      <c r="A26" s="39"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" t="n" s="62">
-        <v>30.0</v>
-      </c>
-      <c r="M26" t="n" s="68">
-        <v>62.0</v>
-      </c>
-      <c r="N26" t="s" s="62">
-        <v>44</v>
-      </c>
-      <c r="AD26" s="75"/>
-    </row>
-    <row r="27" ht="27.0" customHeight="true">
-      <c r="A27" s="39"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" t="n" s="69">
-        <v>32.0</v>
-      </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="62"/>
-      <c r="AD27" s="75"/>
-    </row>
-    <row r="28" ht="27.0" customHeight="true">
-      <c r="A28" t="n" s="47">
-        <v>-3.2</v>
-      </c>
-      <c r="B28" t="n" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="C28" t="n" s="49">
-        <v>0.91</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="I28" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="J28" t="n" s="67">
-        <v>22.6</v>
-      </c>
-      <c r="K28" t="s" s="62">
-        <v>34</v>
-      </c>
-      <c r="L28" t="n" s="64">
-        <v>16.0</v>
-      </c>
-      <c r="M28" t="n" s="66">
-        <v>32.0</v>
-      </c>
-      <c r="N28" t="s" s="62">
-        <v>45</v>
-      </c>
-      <c r="AD28" s="75"/>
-    </row>
-    <row r="29" ht="27.0" customHeight="true">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" t="n" s="62">
-        <v>18.0</v>
-      </c>
-      <c r="M29" t="n" s="68">
-        <v>42.0</v>
-      </c>
-      <c r="N29" s="62"/>
-      <c r="AD29" s="75"/>
-    </row>
-    <row r="30" ht="27.0" customHeight="true">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" t="n" s="69">
-        <v>24.0</v>
-      </c>
-      <c r="M30" s="41"/>
-      <c r="N30" t="s" s="62">
-        <v>46</v>
-      </c>
-      <c r="AD30" s="75"/>
-    </row>
-    <row r="31" ht="27.0" customHeight="true">
-      <c r="A31" s="39"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" t="s" s="62">
-        <v>35</v>
-      </c>
-      <c r="L31" t="n" s="64">
-        <v>17.0</v>
-      </c>
-      <c r="M31" t="n" s="66">
-        <v>34.0</v>
-      </c>
-      <c r="N31" s="62"/>
-      <c r="AD31" s="75"/>
-    </row>
-    <row r="32" ht="27.0" customHeight="true">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" t="n" s="62">
-        <v>18.0</v>
-      </c>
-      <c r="M32" t="n" s="68">
-        <v>38.0</v>
-      </c>
-      <c r="N32" t="s" s="62">
-        <v>47</v>
-      </c>
-      <c r="AD32" s="75"/>
-    </row>
-    <row r="33" ht="27.0" customHeight="true">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" t="n" s="69">
-        <v>20.0</v>
-      </c>
-      <c r="M33" s="41"/>
-      <c r="N33" s="62"/>
-      <c r="AD33" s="75"/>
-    </row>
-    <row r="34" ht="27.0" customHeight="true">
-      <c r="A34" t="n" s="47">
-        <v>-4.11</v>
-      </c>
-      <c r="B34" t="n" s="48">
-        <v>4.11</v>
-      </c>
-      <c r="C34" t="n" s="49">
-        <v>0.91</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="I34" t="s" s="58">
-        <v>51</v>
-      </c>
-      <c r="J34" t="n" s="67">
-        <v>40.4</v>
-      </c>
-      <c r="K34" t="s" s="62">
-        <v>36</v>
-      </c>
-      <c r="L34" t="n" s="64">
-        <v>18.0</v>
-      </c>
-      <c r="M34" t="n" s="66">
-        <v>36.0</v>
-      </c>
-      <c r="N34" t="s" s="62">
-        <v>48</v>
-      </c>
-      <c r="AD34" s="75"/>
-    </row>
-    <row r="35" ht="27.0" customHeight="true">
-      <c r="A35" s="39"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" t="n" s="62">
-        <v>15.0</v>
-      </c>
-      <c r="M35" t="n" s="68">
-        <v>30.0</v>
-      </c>
-      <c r="N35" s="62"/>
-      <c r="AD35" s="75"/>
-    </row>
-    <row r="36" ht="27.0" customHeight="true">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" t="n" s="69">
-        <v>15.0</v>
-      </c>
-      <c r="M36" s="41"/>
-      <c r="N36" t="s" s="62">
-        <v>49</v>
-      </c>
-      <c r="AD36" s="75"/>
-    </row>
-    <row r="37" ht="27.0" customHeight="true">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" t="s" s="62">
-        <v>37</v>
-      </c>
-      <c r="L37" t="n" s="64">
-        <v>36.0</v>
-      </c>
-      <c r="M37" t="n" s="66">
-        <v>72.0</v>
-      </c>
-      <c r="N37" s="62"/>
-      <c r="AD37" s="75"/>
-    </row>
-    <row r="38" ht="27.0" customHeight="true">
-      <c r="A38" s="39"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" t="n" s="62">
-        <v>42.0</v>
-      </c>
-      <c r="M38" t="n" s="68">
-        <v>92.0</v>
-      </c>
-      <c r="N38" t="s" s="62">
-        <v>50</v>
-      </c>
-      <c r="AD38" s="75"/>
-    </row>
-    <row r="39" ht="27.0" customHeight="true">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" t="n" s="81">
-        <v>50.0</v>
-      </c>
-      <c r="M39" s="80"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="83"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="84">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3566,60 +2736,18 @@
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B13:B24"/>
-    <mergeCell ref="C13:C24"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="G13:G24"/>
-    <mergeCell ref="H13:H24"/>
-    <mergeCell ref="I13:I24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="E13:E39"/>
-    <mergeCell ref="D13:D39"/>
-    <mergeCell ref="A41:AD41"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A20:AD20"/>
   </mergeCells>
   <printOptions horizontalCentered="true"/>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.25"/>
@@ -3633,7 +2761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3649,7 +2777,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.0</v>
+        <v>66.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -3657,7 +2785,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.0</v>
+        <v>66.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.5</v>
@@ -3665,7 +2793,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.5</v>
@@ -3673,7 +2801,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -3681,7 +2809,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="B6" t="n">
         <v>1.5</v>
@@ -3689,7 +2817,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.0</v>
+        <v>64.0</v>
       </c>
       <c r="B7" t="n">
         <v>1.5</v>
@@ -3697,7 +2825,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20.0</v>
+        <v>64.0</v>
       </c>
       <c r="B8" t="n">
         <v>2.0</v>
@@ -3705,7 +2833,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30.0</v>
+        <v>76.0</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3713,7 +2841,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.0</v>
+        <v>76.0</v>
       </c>
       <c r="B10" t="n">
         <v>2.5</v>
@@ -3721,7 +2849,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30.0</v>
+        <v>76.0</v>
       </c>
       <c r="B11" t="n">
         <v>3.0</v>
@@ -3729,7 +2857,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12" t="n">
         <v>3.0</v>
@@ -3737,289 +2865,9 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B32" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B48" t="n">
         <v>0.0</v>
       </c>
     </row>
